--- a/inst/extdata/Number of lipid metabolites identified by metabolic reaction (x value).xlsx
+++ b/inst/extdata/Number of lipid metabolites identified by metabolic reaction (x value).xlsx
@@ -9,6 +9,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$63</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -35,28 +38,22 @@
     <t>x</t>
   </si>
   <si>
-    <t>α-hydroperoxidation</t>
-  </si>
-  <si>
-    <t>2-aminoethylphosphonation</t>
+    <t>Looping (isoprostanoids type A)</t>
+  </si>
+  <si>
+    <t>Oxidation to nitroalkene derivative</t>
   </si>
   <si>
     <t>Acetylation</t>
   </si>
   <si>
-    <t>AcetylGalactrosaminyltransferation/acetylglucosaminyltransferation</t>
-  </si>
-  <si>
-    <t>Acetylneuraminyltransferation</t>
-  </si>
-  <si>
-    <t>Addition of Carnitine</t>
+    <t>Addition of alanine</t>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
       <t>Addition of CO</t>
@@ -64,56 +61,122 @@
     <r>
       <rPr>
         <vertAlign val="subscript"/>
-        <sz val="14"/>
-        <rFont val="Times New Roman"/>
+        <sz val="10"/>
+        <rFont val="Microsoft YaHei"/>
         <charset val="134"/>
       </rPr>
       <t>2</t>
     </r>
   </si>
   <si>
+    <t>Distal end oxidative cleavage to aldehyde</t>
+  </si>
+  <si>
+    <t>Distal end oxidative cleavage to carboxyl</t>
+  </si>
+  <si>
+    <t>Proximal end oxidative cleavage to aldehyde</t>
+  </si>
+  <si>
+    <t>Proximal end oxidative cleavage to carboxyl</t>
+  </si>
+  <si>
+    <t>Sulfation</t>
+  </si>
+  <si>
+    <t>Looping (isoprostanoids type D)</t>
+  </si>
+  <si>
+    <t>Oxidation to nitrohydroxy derivative</t>
+  </si>
+  <si>
+    <t>Addition of stearyl acid</t>
+  </si>
+  <si>
+    <t>Oxidation to nitro-epoxy derivative</t>
+  </si>
+  <si>
+    <t>PS phosphatidylserine decarboxylation</t>
+  </si>
+  <si>
+    <t>Addition of palmitic acid</t>
+  </si>
+  <si>
+    <t>Addition of hexose</t>
+  </si>
+  <si>
+    <t>Oxidation to nitronitrite derivative</t>
+  </si>
+  <si>
+    <t>Addition of phosphate</t>
+  </si>
+  <si>
+    <t>Lysine conjugation</t>
+  </si>
+  <si>
+    <t>Addition of phosphatidylethanol</t>
+  </si>
+  <si>
+    <t>AcetylGalactrosaminyltransferation/acetylglucosaminyltransferation</t>
+  </si>
+  <si>
+    <t>2-aminoethylphosphonation</t>
+  </si>
+  <si>
+    <t>Addition of phosphatidylbutanol</t>
+  </si>
+  <si>
+    <t>Addition of phosphatidylpropanol</t>
+  </si>
+  <si>
+    <t>Acetylneuraminyltransferation</t>
+  </si>
+  <si>
+    <t>Glycine conjugation</t>
+  </si>
+  <si>
+    <t>Loss of CO2</t>
+  </si>
+  <si>
+    <t>PE phosphatidohydrolation/Loss of ammonia</t>
+  </si>
+  <si>
+    <t>Addition of di-hexose</t>
+  </si>
+  <si>
+    <t>Addition of phosphatidylmethanol</t>
+  </si>
+  <si>
+    <t>Addition of Carnitine</t>
+  </si>
+  <si>
+    <t>Alpha-D-sulfoquinovosyltransferation</t>
+  </si>
+  <si>
+    <t>Addition of glucuronic acid</t>
+  </si>
+  <si>
+    <t>Hydroxylation</t>
+  </si>
+  <si>
+    <t>Glutamine conjugation</t>
+  </si>
+  <si>
+    <t>Ornithine conjugation</t>
+  </si>
+  <si>
+    <t>Taurine conjugation</t>
+  </si>
+  <si>
+    <t>α-hydroperoxidation</t>
+  </si>
+  <si>
     <t>Addition of cytidine</t>
   </si>
   <si>
-    <t>Addition of di-hexose</t>
-  </si>
-  <si>
-    <t>Addition of glucuronic acid</t>
-  </si>
-  <si>
-    <t>Addition of hexose</t>
-  </si>
-  <si>
-    <t>Addition of palmitic acid</t>
-  </si>
-  <si>
-    <t>Addition of phosphate</t>
-  </si>
-  <si>
-    <t>Addition of phosphatidylbutanol</t>
-  </si>
-  <si>
-    <t>Addition of phosphatidylethanol</t>
-  </si>
-  <si>
-    <t>Addition of phosphatidylmethanol</t>
-  </si>
-  <si>
-    <t>Addition of phosphatidylpropanol</t>
-  </si>
-  <si>
-    <t>Addition of stearyl acid</t>
-  </si>
-  <si>
     <t>Addition of tri-hexose</t>
   </si>
   <si>
-    <t>Addition of alanine</t>
-  </si>
-  <si>
-    <t>Alpha-D-sulfoquinovosyltransferation</t>
-  </si>
-  <si>
     <t>CE oxygen oxidoreductase (side-chain-cleaving)</t>
   </si>
   <si>
@@ -129,27 +192,12 @@
     <t>Ethanolaminephosphotransferation (PE=&gt;DG)</t>
   </si>
   <si>
-    <t>Glutamine conjugation</t>
-  </si>
-  <si>
-    <t>Glycine conjugation</t>
-  </si>
-  <si>
-    <t>Hydroxylation</t>
-  </si>
-  <si>
     <t>Ketylation</t>
   </si>
   <si>
-    <t>Looping (isoprostanoids type A)</t>
-  </si>
-  <si>
     <t>Looping (isoprostanoids type B)</t>
   </si>
   <si>
-    <t>Looping (isoprostanoids type D)</t>
-  </si>
-  <si>
     <t>Looping (isoprostanoids type E)</t>
   </si>
   <si>
@@ -165,9 +213,6 @@
     <t>Looping (isoprostanoids type L)</t>
   </si>
   <si>
-    <t>Loss of CO2</t>
-  </si>
-  <si>
     <t>Loss of di-hexose</t>
   </si>
   <si>
@@ -180,61 +225,19 @@
     <t>Loss of tri-hexose</t>
   </si>
   <si>
-    <t>Lysine conjugation</t>
-  </si>
-  <si>
     <t>Methylation</t>
   </si>
   <si>
-    <t>Ornithine conjugation</t>
-  </si>
-  <si>
-    <t>Oxidation to nitroalkene derivative</t>
-  </si>
-  <si>
     <t>Oxidation to nitroallyl derivative</t>
   </si>
   <si>
-    <t>Oxidation to nitro-epoxy derivative</t>
-  </si>
-  <si>
-    <t>Oxidation to nitrohydroxy derivative</t>
-  </si>
-  <si>
     <t>Oxidation to nitro-keto derivative</t>
   </si>
   <si>
-    <t>Oxidation to nitronitrite derivative</t>
-  </si>
-  <si>
-    <t>Distal end oxidative cleavage to aldehyde</t>
-  </si>
-  <si>
-    <t>Distal end oxidative cleavage to carboxyl</t>
-  </si>
-  <si>
     <t>PC=&gt;PS </t>
   </si>
   <si>
-    <t>PE phosphatidohydrolation</t>
-  </si>
-  <si>
-    <t>PS phosphatidylserine decarboxylation</t>
-  </si>
-  <si>
     <t>PS=&gt;PC </t>
-  </si>
-  <si>
-    <t>Sulfation</t>
-  </si>
-  <si>
-    <t>Taurine conjugation</t>
-  </si>
-  <si>
-    <t>Proximal end oxidative cleavage to aldehyde</t>
-  </si>
-  <si>
-    <t>Proximal end oxidative cleavage to carboxyl</t>
   </si>
   <si>
     <t>Total</t>
@@ -266,25 +269,26 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
+      <sz val="11"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
     <font>
@@ -439,8 +443,8 @@
     </font>
     <font>
       <vertAlign val="subscript"/>
-      <sz val="14"/>
-      <name val="Times New Roman"/>
+      <sz val="10"/>
+      <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -913,7 +917,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -924,34 +928,37 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1482,17 +1489,18 @@
   <sheetPr/>
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A58" sqref="A58"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B63" sqref="A2:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="63.875" style="2" customWidth="1"/>
-    <col min="2" max="16384" width="8.89166666666667" style="1"/>
+    <col min="1" max="1" width="40.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.00833333333333" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.89166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="18.75" spans="1:2">
+    <row r="1" s="1" customFormat="1" ht="18.5" customHeight="1" spans="1:2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1500,23 +1508,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="18.75" spans="1:2">
+    <row r="2" ht="18.5" customHeight="1" spans="1:2">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" ht="18.75" spans="1:2">
-      <c r="A3" s="11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="3" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" ht="18.75" spans="1:2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" ht="18.5" customHeight="1" spans="1:2">
       <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
@@ -1524,295 +1532,295 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" ht="18.75" spans="1:2">
-      <c r="A5" s="11" t="s">
+    <row r="5" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A5" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" ht="18.75" spans="1:2">
-      <c r="A6" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A6" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" ht="18.75" spans="1:2">
-      <c r="A7" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" ht="23.25" spans="1:2">
-      <c r="A8" s="7" t="s">
+      <c r="B7" s="8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="6">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" ht="18.75" spans="1:2">
+      <c r="B8" s="8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" ht="18.5" customHeight="1" spans="1:2">
       <c r="A9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="18.75" spans="1:2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" ht="18.5" customHeight="1" spans="1:2">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B10" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" ht="18.75" spans="1:2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" ht="18.5" customHeight="1" spans="1:2">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" ht="18.75" spans="1:2">
-      <c r="A12" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A12" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" ht="18.75" spans="1:2">
-      <c r="A13" s="7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A13" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="6">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" ht="18.75" spans="1:2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" ht="18.5" customHeight="1" spans="1:2">
       <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B14" s="6">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="6">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A16" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" ht="18.75" spans="1:2">
-      <c r="A15" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" ht="18.75" spans="1:2">
-      <c r="A16" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="B16" s="6">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" ht="18.75" spans="1:2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" ht="18.5" customHeight="1" spans="1:2">
       <c r="A17" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" ht="18.75" spans="1:2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" ht="18.5" customHeight="1" spans="1:2">
       <c r="A18" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="6">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" ht="18.75" spans="1:2">
-      <c r="A19" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="6">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" ht="18.75" spans="1:2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" ht="18.5" customHeight="1" spans="1:2">
       <c r="A20" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" ht="18.75" spans="1:2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" ht="18.5" customHeight="1" spans="1:2">
       <c r="A21" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="6">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" ht="18.75" spans="1:2">
-      <c r="A22" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" ht="35" customHeight="1" spans="1:2">
+      <c r="A22" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="6">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" ht="18.75" spans="1:2">
-      <c r="A23" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A23" s="12" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" ht="18.75" spans="1:2">
-      <c r="A24" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A24" s="12" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" ht="18.75" spans="1:2">
-      <c r="A25" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A25" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" ht="18.75" spans="1:2">
-      <c r="A26" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A26" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" ht="18.75" spans="1:2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" ht="18.5" customHeight="1" spans="1:2">
       <c r="A27" s="12" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" ht="18.75" spans="1:2">
-      <c r="A28" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A28" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" ht="18.75" spans="1:2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" ht="18.5" customHeight="1" spans="1:2">
       <c r="A29" s="7" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" ht="18.75" spans="1:2">
-      <c r="A30" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A30" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A31" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A33" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A34" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A35" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="6">
         <v>2</v>
       </c>
     </row>
-    <row r="31" ht="18.75" spans="1:2">
-      <c r="A31" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" ht="18.75" spans="1:2">
-      <c r="A32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="6">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" ht="18.75" spans="1:2">
-      <c r="A33" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" ht="18.75" spans="1:2">
-      <c r="A34" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="6">
+    <row r="36" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A36" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A37" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A38" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A39" s="7" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="35" ht="18.75" spans="1:2">
-      <c r="A35" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" ht="18.75" spans="1:2">
-      <c r="A36" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" ht="18.75" spans="1:2">
-      <c r="A37" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" ht="18.75" spans="1:2">
-      <c r="A38" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" ht="18.75" spans="1:2">
-      <c r="A39" s="5" t="s">
-        <v>39</v>
-      </c>
       <c r="B39" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" ht="18.75" spans="1:2">
-      <c r="A40" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A40" s="5" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="41" ht="18.75" spans="1:2">
+    <row r="41" ht="18.5" customHeight="1" spans="1:2">
       <c r="A41" s="7" t="s">
         <v>41</v>
       </c>
@@ -1820,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" ht="18.75" spans="1:2">
+    <row r="42" ht="18.5" customHeight="1" spans="1:2">
       <c r="A42" s="7" t="s">
         <v>42</v>
       </c>
@@ -1828,15 +1836,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" ht="18.75" spans="1:2">
-      <c r="A43" s="7" t="s">
+    <row r="43" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A43" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="44" ht="18.75" spans="1:2">
+    <row r="44" ht="18.5" customHeight="1" spans="1:2">
       <c r="A44" s="7" t="s">
         <v>44</v>
       </c>
@@ -1844,39 +1852,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" ht="18.75" spans="1:2">
-      <c r="A45" s="7" t="s">
+    <row r="45" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A45" s="5" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="6">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" ht="18.75" spans="1:2">
-      <c r="A46" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A46" s="13" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="47" ht="18.75" spans="1:2">
-      <c r="A47" s="9" t="s">
+    <row r="47" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A47" s="13" t="s">
         <v>47</v>
       </c>
       <c r="B47" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="48" ht="18.75" spans="1:2">
+    <row r="48" ht="18.5" customHeight="1" spans="1:2">
       <c r="A48" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B48" s="6">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="49" ht="18.75" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" ht="18.5" customHeight="1" spans="1:2">
       <c r="A49" s="5" t="s">
         <v>49</v>
       </c>
@@ -1884,23 +1892,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" ht="18.75" spans="1:2">
+    <row r="50" ht="18.5" customHeight="1" spans="1:2">
       <c r="A50" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B50" s="6">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="51" ht="18.75" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" ht="18.5" customHeight="1" spans="1:2">
       <c r="A51" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B51" s="6">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" ht="18.75" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" ht="18.5" customHeight="1" spans="1:2">
       <c r="A52" s="5" t="s">
         <v>52</v>
       </c>
@@ -1908,104 +1916,110 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="18.75" spans="1:2">
+    <row r="53" ht="18.5" customHeight="1" spans="1:2">
       <c r="A53" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B53" s="6">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="54" ht="18.75" spans="1:2">
-      <c r="A54" s="10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A54" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B54" s="6">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="55" ht="18.75" spans="1:2">
-      <c r="A55" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A55" s="11" t="s">
         <v>55</v>
       </c>
       <c r="B55" s="6">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="56" ht="18.75" spans="1:2">
-      <c r="A56" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A56" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B56" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="57" ht="18.75" spans="1:2">
-      <c r="A57" s="5" t="s">
+    <row r="57" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A57" s="7" t="s">
         <v>57</v>
       </c>
       <c r="B57" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="58" ht="18.75" spans="1:2">
-      <c r="A58" s="5" t="s">
+    <row r="58" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A58" s="7" t="s">
         <v>58</v>
       </c>
       <c r="B58" s="6">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" ht="18.75" spans="1:2">
-      <c r="A59" s="5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A59" s="7" t="s">
         <v>59</v>
       </c>
       <c r="B59" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="18.75" spans="1:2">
-      <c r="A60" s="7" t="s">
+    <row r="60" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A60" s="5" t="s">
         <v>60</v>
       </c>
       <c r="B60" s="6">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="61" ht="18.75" spans="1:2">
-      <c r="A61" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A61" s="5" t="s">
         <v>61</v>
       </c>
       <c r="B61" s="6">
         <v>0</v>
       </c>
     </row>
-    <row r="62" ht="18.75" spans="1:2">
-      <c r="A62" s="7" t="s">
+    <row r="62" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A62" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="6">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="63" ht="18.75" spans="1:2">
-      <c r="A63" s="7" t="s">
+      <c r="B62" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" ht="18.5" customHeight="1" spans="1:2">
+      <c r="A63" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B63" s="6">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="64" ht="18.75" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" ht="18.5" customHeight="1" spans="1:2">
       <c r="A64" s="7" t="s">
         <v>64</v>
       </c>
       <c r="B64" s="6">
         <f>SUM(B2:B63)</f>
-        <v>1334</v>
+        <v>1229</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:B63" etc:filterBottomFollowUsedRange="0">
+    <sortState ref="A2:B63">
+      <sortCondition ref="B2" descending="1"/>
+    </sortState>
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
